--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-16.27703438141167</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.94848342549492</v>
+        <v>-11.84134911134108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3496926950634112</v>
+        <v>0.8152680764180319</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.10854673668399</v>
+        <v>-11.05998738544402</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.49405956918889</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.50833647961281</v>
+        <v>-12.41582626773318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4506605345788026</v>
+        <v>0.9207265758081354</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.93189229444057</v>
+        <v>-10.86480733467957</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.73875754204824</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.02244502760171</v>
+        <v>-12.93672972089693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3167393688107867</v>
+        <v>0.7840691187461987</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.79680591371964</v>
+        <v>-10.71217726815073</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.11158933114968</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.55068017035683</v>
+        <v>-13.47994245810299</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5747755655183657</v>
+        <v>1.032390826745217</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.62329362415825</v>
+        <v>-10.51394671082415</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.5825827809056</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.2676932277868</v>
+        <v>-14.20918372638713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.561526155042539</v>
+        <v>1.016470586489678</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.3290572100933</v>
+        <v>-10.16944894614982</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.1625294359203</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.80408487521232</v>
+        <v>-14.7613123218284</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6668013621928583</v>
+        <v>1.113366719821293</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.31537575362369</v>
+        <v>-10.12243448664518</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.83345973876026</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.51198568986445</v>
+        <v>-15.49351245055477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9610901454691768</v>
+        <v>1.410876209596676</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.697209582648757</v>
+        <v>-9.5032209314429</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.58849013748</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.36208200568056</v>
+        <v>-16.34366113558225</v>
       </c>
       <c r="F9" t="n">
-        <v>1.062490030978345</v>
+        <v>1.504014852012715</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.134489314208528</v>
+        <v>-8.914721918707315</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.41092294931988</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.05907693206553</v>
+        <v>-17.02609742120723</v>
       </c>
       <c r="F10" t="n">
-        <v>1.273930721872221</v>
+        <v>1.74009525685472</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.577830781984019</v>
+        <v>-8.334994748875683</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.28348894928125</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.03902270746589</v>
+        <v>-18.00407935118132</v>
       </c>
       <c r="F11" t="n">
-        <v>1.441067059949696</v>
+        <v>1.907467256383346</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.311166757703743</v>
+        <v>-8.054740914245697</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.19429295839797</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.93826752814984</v>
+        <v>-18.9053403865029</v>
       </c>
       <c r="F12" t="n">
-        <v>1.65635688787904</v>
+        <v>2.141871846461609</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.813868726563619</v>
+        <v>-7.543106811493883</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.11857842480799</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.47168722283029</v>
+        <v>-19.46236550320698</v>
       </c>
       <c r="F13" t="n">
-        <v>1.598069955627675</v>
+        <v>2.090445280899309</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.171272318486021</v>
+        <v>-6.882587040825961</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.04607892978478</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.43878944914291</v>
+        <v>-20.42445337753122</v>
       </c>
       <c r="F14" t="n">
-        <v>2.07292777969708</v>
+        <v>2.557290615629577</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.368072631448968</v>
+        <v>-6.078863661675239</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.95425515328145</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.31660217007496</v>
+        <v>-21.31423246326061</v>
       </c>
       <c r="F15" t="n">
-        <v>2.139410493527365</v>
+        <v>2.625030190532668</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.036130385199845</v>
+        <v>-5.747798599716512</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.83717903321635</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.01474921911</v>
+        <v>-22.04143133230144</v>
       </c>
       <c r="F16" t="n">
-        <v>2.31474261318376</v>
+        <v>2.804263816435898</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.584301921829037</v>
+        <v>-5.297842335652071</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.68621580346527</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.88466728142849</v>
+        <v>-22.92105079102565</v>
       </c>
       <c r="F17" t="n">
-        <v>2.601359306994827</v>
+        <v>3.107926688546892</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.585362398359217</v>
+        <v>-5.299596704232862</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.50851078151151</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.90457076510179</v>
+        <v>-23.92562318807129</v>
       </c>
       <c r="F18" t="n">
-        <v>2.526654626979938</v>
+        <v>3.011645893448839</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.358093113329694</v>
+        <v>-5.064720791252296</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.31126141604015</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.51513030812569</v>
+        <v>-24.56175199854507</v>
       </c>
       <c r="F19" t="n">
-        <v>2.798503203185538</v>
+        <v>3.280718901451993</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.332746415028113</v>
+        <v>-5.041036815411614</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.11327344236655</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.9906820242457</v>
+        <v>-25.01841152166448</v>
       </c>
       <c r="F20" t="n">
-        <v>3.076531346332433</v>
+        <v>3.551310616584787</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.061500084753232</v>
+        <v>-4.755820998004611</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.92895756745781</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.69475988646805</v>
+        <v>-25.71829984697747</v>
       </c>
       <c r="F21" t="n">
-        <v>3.019003767645889</v>
+        <v>3.482864057328244</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.964132628519315</v>
+        <v>-4.687060223479866</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.77825363638036</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.21430174013626</v>
+        <v>-26.23454244032957</v>
       </c>
       <c r="F22" t="n">
-        <v>3.244217561129261</v>
+        <v>3.693466840840249</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.088064367219094</v>
+        <v>-4.783917079902956</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.67114654506395</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.6789737525948</v>
+        <v>-26.68360842780078</v>
       </c>
       <c r="F23" t="n">
-        <v>3.228271136268039</v>
+        <v>3.674613924748163</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.073296249613627</v>
+        <v>-4.800439566089214</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.61236015994156</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.04345037140562</v>
+        <v>-27.06249967204033</v>
       </c>
       <c r="F24" t="n">
-        <v>3.441466195742706</v>
+        <v>3.88697107684096</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.295734474894553</v>
+        <v>-5.038627831688737</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.59826908807101</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.18444138070817</v>
+        <v>-27.18607791856338</v>
       </c>
       <c r="F25" t="n">
-        <v>3.265584199366958</v>
+        <v>3.705747420905788</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.96561205874043</v>
+        <v>-4.721584626073498</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.61087448537666</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.60644557820552</v>
+        <v>-27.591847660537</v>
       </c>
       <c r="F26" t="n">
-        <v>3.506587310077451</v>
+        <v>3.918052203787218</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.031139034463269</v>
+        <v>-4.778601604949215</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.63267704369385</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.44204553142197</v>
+        <v>-27.44245139281006</v>
       </c>
       <c r="F27" t="n">
-        <v>3.446860224513497</v>
+        <v>3.873747850970817</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.983286667576761</v>
+        <v>-4.727659454592059</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.63294313666569</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.686230071723</v>
+        <v>-27.70192774283023</v>
       </c>
       <c r="F28" t="n">
-        <v>3.203605237714227</v>
+        <v>3.62528212764054</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.035040540710104</v>
+        <v>-4.794757506655904</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.59285397100507</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.65250429960271</v>
+        <v>-27.6780735670526</v>
       </c>
       <c r="F29" t="n">
-        <v>3.354690412507745</v>
+        <v>3.765395952652692</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.067666559391685</v>
+        <v>-4.833170323193529</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.48865045860838</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.33265934117935</v>
+        <v>-27.35563633266657</v>
       </c>
       <c r="F30" t="n">
-        <v>3.2087112358225</v>
+        <v>3.618264653317374</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.147922375811466</v>
+        <v>-4.932802747819064</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.31224720174007</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.07814497393619</v>
+        <v>-27.11082336182914</v>
       </c>
       <c r="F31" t="n">
-        <v>3.168177466224516</v>
+        <v>3.588047618358671</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.031217588280319</v>
+        <v>-4.81557426817425</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.05741207253407</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.81239741085484</v>
+        <v>-26.83593737136426</v>
       </c>
       <c r="F32" t="n">
-        <v>3.131309541422215</v>
+        <v>3.543638527119536</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.233716236333296</v>
+        <v>-5.023087268215607</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.73056329999979</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.60471421087653</v>
+        <v>-26.62615940293128</v>
       </c>
       <c r="F33" t="n">
-        <v>3.201615207682284</v>
+        <v>3.614075116408022</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.562817452865764</v>
+        <v>-5.357268298250665</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.340793026849989</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.12708081860469</v>
+        <v>-26.13707024567292</v>
       </c>
       <c r="F34" t="n">
-        <v>3.111671087159626</v>
+        <v>3.525518779986587</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.711375813210831</v>
+        <v>-5.516339777777637</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.905318626642707</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.75989409310564</v>
+        <v>-25.78711299071358</v>
       </c>
       <c r="F35" t="n">
-        <v>3.10289924425567</v>
+        <v>3.515804291278026</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.812618591085898</v>
+        <v>-5.6275588904181</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.443221170025597</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.47458662957874</v>
+        <v>-25.50366463419022</v>
       </c>
       <c r="F36" t="n">
-        <v>3.103475305580706</v>
+        <v>3.515882845095077</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.731302298135938</v>
+        <v>-5.569101758229793</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.977599149003396</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.02806054885883</v>
+        <v>-25.04506745025023</v>
       </c>
       <c r="F37" t="n">
-        <v>2.85768041203014</v>
+        <v>3.283546838865806</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.005507488853048</v>
+        <v>-5.861806372862262</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.532518280562162</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.43601352205314</v>
+        <v>-24.46887520218587</v>
       </c>
       <c r="F38" t="n">
-        <v>3.300252617291848</v>
+        <v>3.71273871062327</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.965955641968193</v>
+        <v>-5.821639187743847</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.126920077942732</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.06557990544934</v>
+        <v>-24.10463424482621</v>
       </c>
       <c r="F39" t="n">
-        <v>3.22714519822365</v>
+        <v>3.647381934837373</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.23443949634347</v>
+        <v>-6.092257087482325</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.781183564196306</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.51563772458264</v>
+        <v>-23.543236298973</v>
       </c>
       <c r="F40" t="n">
-        <v>3.224526737655305</v>
+        <v>3.656729839066366</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.088538873475275</v>
+        <v>-5.965667611305676</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.500937571900999</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.03877677817845</v>
+        <v>-23.07809296361215</v>
       </c>
       <c r="F41" t="n">
-        <v>3.357963488218177</v>
+        <v>3.801373600861755</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.344558855545229</v>
+        <v>-6.223494331167787</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.29384440079025</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.52401361504746</v>
+        <v>-22.54761903707109</v>
       </c>
       <c r="F42" t="n">
-        <v>3.407976085073571</v>
+        <v>3.839995894244847</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.467430117714827</v>
+        <v>-6.341233410623429</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.150826261298675</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.87564350141666</v>
+        <v>-21.91025955013018</v>
       </c>
       <c r="F43" t="n">
-        <v>3.347803861212997</v>
+        <v>3.778697732339886</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.261606024740052</v>
+        <v>-6.162968615130487</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.067654701427218</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.65683184402289</v>
+        <v>-21.67815920535207</v>
       </c>
       <c r="F44" t="n">
-        <v>3.360581948786522</v>
+        <v>3.811088089570316</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.113139310514878</v>
+        <v>-6.035973277565745</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.03020500316785</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.8713460427307</v>
+        <v>-20.91194527384289</v>
       </c>
       <c r="F45" t="n">
-        <v>3.270402166812713</v>
+        <v>3.716142709362118</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.124752183135489</v>
+        <v>-6.042218306021248</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.030610414343807</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.29360890293101</v>
+        <v>-20.34376551511766</v>
       </c>
       <c r="F46" t="n">
-        <v>2.98472811880625</v>
+        <v>3.433741737066087</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.107365604961677</v>
+        <v>-6.030513787280745</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.056851451116768</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.42225068729993</v>
+        <v>-19.48382378756457</v>
       </c>
       <c r="F47" t="n">
-        <v>3.279357301956454</v>
+        <v>3.719677631129385</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.152324572920165</v>
+        <v>-6.09623714754621</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.10305208358534</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.7603169479251</v>
+        <v>-18.80579960799726</v>
       </c>
       <c r="F48" t="n">
-        <v>3.0947820164938</v>
+        <v>3.545000126615075</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.406891309374686</v>
+        <v>-6.331977152514329</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.161098283503145</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.19225501992545</v>
+        <v>-18.25147150567858</v>
       </c>
       <c r="F49" t="n">
-        <v>3.179751061936602</v>
+        <v>3.63127840234205</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.719758070383413</v>
+        <v>-6.634121317495683</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.229375327486617</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.61544743362752</v>
+        <v>-17.66951864436385</v>
       </c>
       <c r="F50" t="n">
-        <v>3.081375498383872</v>
+        <v>3.526461425791191</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.530011325298278</v>
+        <v>-6.45198120036159</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.30223167127054</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.20586783152697</v>
+        <v>-17.25993904226329</v>
       </c>
       <c r="F51" t="n">
-        <v>3.203448130080126</v>
+        <v>3.651885687014927</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.769953959478592</v>
+        <v>-6.706089706216652</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.379100587689659</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.84407513479871</v>
+        <v>-16.92128044465636</v>
       </c>
       <c r="F52" t="n">
-        <v>3.059720829483657</v>
+        <v>3.512138446482343</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.756010656952153</v>
+        <v>-6.698352155237192</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.456176524332949</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.88757767378788</v>
+        <v>-15.96759782875651</v>
       </c>
       <c r="F53" t="n">
-        <v>3.111828194793727</v>
+        <v>3.56793784119378</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.822061324788661</v>
+        <v>-6.774457711656146</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.530772643620724</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.23162711681172</v>
+        <v>-15.3192538997314</v>
       </c>
       <c r="F54" t="n">
-        <v>2.992478762088552</v>
+        <v>3.441911334039324</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.240255662159075</v>
+        <v>-7.192102172307207</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.600597760683402</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.7643890129962</v>
+        <v>-14.87156260405857</v>
       </c>
       <c r="F55" t="n">
-        <v>3.057128553520995</v>
+        <v>3.510017493421983</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.485029356087986</v>
+        <v>-7.439009911599319</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.662173200550972</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.65923163657146</v>
+        <v>-14.76243825987279</v>
       </c>
       <c r="F56" t="n">
-        <v>2.912851376205174</v>
+        <v>3.362624348029831</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.579752167147874</v>
+        <v>-7.557848744493667</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.715928606809787</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.26140892242277</v>
+        <v>-14.38104638579047</v>
       </c>
       <c r="F57" t="n">
-        <v>3.03699259175042</v>
+        <v>3.470583477262704</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.41133278339191</v>
+        <v>-7.402416925156695</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.756439022825151</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.15259879350519</v>
+        <v>-14.25868572343169</v>
       </c>
       <c r="F58" t="n">
-        <v>2.927043432485605</v>
+        <v>3.360529579575155</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.71155237985553</v>
+        <v>-7.692071033227042</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.781357087900888</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.53928986688453</v>
+        <v>-13.64044099863971</v>
       </c>
       <c r="F59" t="n">
-        <v>2.95385646870546</v>
+        <v>3.397214212137671</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.138845867700944</v>
+        <v>-8.107476710092168</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.785517335231735</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.09411229335732</v>
+        <v>-13.23190878076649</v>
       </c>
       <c r="F60" t="n">
-        <v>3.11405388627682</v>
+        <v>3.545104865037809</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.117714890914398</v>
+        <v>-8.103130065548715</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.76828742345466</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.02628107233433</v>
+        <v>-13.15064485702789</v>
       </c>
       <c r="F61" t="n">
-        <v>3.103580044003439</v>
+        <v>3.524733241816083</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.311585711394677</v>
+        <v>-8.287875550948312</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.726325477861226</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.71505084918082</v>
+        <v>-12.83861600340103</v>
       </c>
       <c r="F62" t="n">
-        <v>3.08682189636603</v>
+        <v>3.50263343461925</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.411532351288415</v>
+        <v>-8.402197539362264</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.660424945297637</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.22255769318361</v>
+        <v>-12.3463977857635</v>
       </c>
       <c r="F63" t="n">
-        <v>2.907535901251433</v>
+        <v>3.337670418813501</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.463155301393341</v>
+        <v>-8.459842948774384</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.569380138749962</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.06042261479168</v>
+        <v>-12.20329891570344</v>
       </c>
       <c r="F64" t="n">
-        <v>2.893160552731218</v>
+        <v>3.318843687327099</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.319676754550864</v>
+        <v>-8.310616880984391</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.455608205906909</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.92138235861255</v>
+        <v>-12.06140453750481</v>
       </c>
       <c r="F65" t="n">
-        <v>2.768312352832518</v>
+        <v>3.19711145550473</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.518182250237116</v>
+        <v>-8.482073678999635</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.31992334633193</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.00763444973384</v>
+        <v>-12.14080935423988</v>
       </c>
       <c r="F66" t="n">
-        <v>2.817905995996977</v>
+        <v>3.24633851418962</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.634795391648369</v>
+        <v>-8.604172495301572</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.164526905200414</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.86820142446946</v>
+        <v>-12.01500541623373</v>
       </c>
       <c r="F67" t="n">
-        <v>2.623197268134827</v>
+        <v>3.074541316300491</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.536354366581431</v>
+        <v>-8.520434126325892</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.993601718104952</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.64527878398339</v>
+        <v>-11.77546864344151</v>
       </c>
       <c r="F68" t="n">
-        <v>2.390547046637354</v>
+        <v>2.833223990321796</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.510916022159957</v>
+        <v>-8.500520733703627</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.809440120080549</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.5957375100303</v>
+        <v>-11.7341100587645</v>
       </c>
       <c r="F69" t="n">
-        <v>2.271249983143546</v>
+        <v>2.728642675222088</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.421862178230537</v>
+        <v>-8.40405664636579</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.620534789513084</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.73050967548302</v>
+        <v>-11.86647324049435</v>
       </c>
       <c r="F70" t="n">
-        <v>2.199425609753837</v>
+        <v>2.656765932621012</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.507642946449526</v>
+        <v>-8.485163462470283</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.42886891628567</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.88806244788035</v>
+        <v>-12.00632521944967</v>
       </c>
       <c r="F71" t="n">
-        <v>2.162793346402688</v>
+        <v>2.616127424600294</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.382113946803056</v>
+        <v>-8.374664426486113</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.241799054709867</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.83506480597705</v>
+        <v>-11.96393234284816</v>
       </c>
       <c r="F72" t="n">
-        <v>1.983533535893774</v>
+        <v>2.437600783050518</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.384234899863415</v>
+        <v>-8.387573437088056</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.059060891995079</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.02875233421754</v>
+        <v>-12.1523960422548</v>
       </c>
       <c r="F73" t="n">
-        <v>1.798827327402703</v>
+        <v>2.260226264150813</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.021303172787928</v>
+        <v>-8.033924152727351</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.885306386788969</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.35967338084501</v>
+        <v>-12.47328838490551</v>
       </c>
       <c r="F74" t="n">
-        <v>1.79751809711853</v>
+        <v>2.267610322953546</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.750528165415349</v>
+        <v>-7.759522577467615</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.721178143540762</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.66591543661583</v>
+        <v>-12.77277481240999</v>
       </c>
       <c r="F75" t="n">
-        <v>1.678378141258823</v>
+        <v>2.141976584884343</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.414906982067701</v>
+        <v>-7.433838451976837</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.571860286388275</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.79023994440086</v>
+        <v>-12.90879074663269</v>
       </c>
       <c r="F76" t="n">
-        <v>1.514410140469046</v>
+        <v>1.986413842518954</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.382451163323062</v>
+        <v>-7.413558474875003</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.440156076032928</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.13023395689764</v>
+        <v>-13.25533091055033</v>
       </c>
       <c r="F77" t="n">
-        <v>1.614068749700265</v>
+        <v>2.095420355979165</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.245230737238932</v>
+        <v>-7.281182200842311</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.333268693543511</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.45116557645687</v>
+        <v>-13.55242144663478</v>
       </c>
       <c r="F78" t="n">
-        <v>1.482072152449982</v>
+        <v>1.956170622954567</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.88083267224517</v>
+        <v>-6.934733683044556</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.255470071599541</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.77383847229405</v>
+        <v>-13.88116917099052</v>
       </c>
       <c r="F79" t="n">
-        <v>1.20095422583244</v>
+        <v>1.683824539240981</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.946569124813476</v>
+        <v>-6.99620204488646</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.216693440743366</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.26377862923712</v>
+        <v>-14.36792789834306</v>
       </c>
       <c r="F80" t="n">
-        <v>1.409855009975021</v>
+        <v>1.890368708872052</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.82546532352751</v>
+        <v>-6.880479180068443</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.222464676628862</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.71512267740279</v>
+        <v>-14.8238149755948</v>
       </c>
       <c r="F81" t="n">
-        <v>1.350101739805384</v>
+        <v>1.828625408670471</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.75924445575406</v>
+        <v>-6.814533250654669</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.282350051427493</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.36832385078219</v>
+        <v>-15.47916328664024</v>
       </c>
       <c r="F82" t="n">
-        <v>1.395348738426389</v>
+        <v>1.876700344705289</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.658695569929604</v>
+        <v>-6.712701319151724</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.401129811451897</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.03893778694108</v>
+        <v>-16.16792315453776</v>
       </c>
       <c r="F83" t="n">
-        <v>1.394929784735454</v>
+        <v>1.887724063698023</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.663055306775898</v>
+        <v>-6.71571254880532</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.584498400646493</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.85693177618928</v>
+        <v>-16.9923585567841</v>
       </c>
       <c r="F84" t="n">
-        <v>1.397443506881065</v>
+        <v>1.888928555559461</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.393301499024974</v>
+        <v>-6.422431872847815</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.834800833599864</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.20017586314469</v>
+        <v>-18.33630962809296</v>
       </c>
       <c r="F85" t="n">
-        <v>1.368902286686102</v>
+        <v>1.857847428613204</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.019542437499378</v>
+        <v>-6.053582424887867</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.152898793211683</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.28785819862961</v>
+        <v>-19.40320138666522</v>
       </c>
       <c r="F86" t="n">
-        <v>1.360601766684448</v>
+        <v>1.839099250943852</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.64219608499515</v>
+        <v>-5.674573349922738</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.538540125651541</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.28572733662029</v>
+        <v>-20.40905682938935</v>
       </c>
       <c r="F87" t="n">
-        <v>1.1883594304987</v>
+        <v>1.678299587441773</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.549463303967204</v>
+        <v>-5.580334954067994</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.989431142654024</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.75104405527195</v>
+        <v>-21.86026004557763</v>
       </c>
       <c r="F88" t="n">
-        <v>1.14209123225604</v>
+        <v>1.634859326612925</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.212978028632002</v>
+        <v>-5.247882108008044</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.504796817760664</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.27155792270434</v>
+        <v>-23.38504200373642</v>
       </c>
       <c r="F89" t="n">
-        <v>1.251569068618553</v>
+        <v>1.745803500893712</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.36412866493973</v>
+        <v>-5.392486592894908</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.078583532720351</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.65405273357924</v>
+        <v>-24.77054804426492</v>
       </c>
       <c r="F90" t="n">
-        <v>1.238699334925137</v>
+        <v>1.737791011554576</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.266748116402971</v>
+        <v>-5.305435871300272</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.710906428603742</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.12735575696436</v>
+        <v>-26.23727873162349</v>
       </c>
       <c r="F91" t="n">
-        <v>1.192064552202908</v>
+        <v>1.677356941637168</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.144636207798192</v>
+        <v>-5.182512239919306</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.39064820838793</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.83743307724209</v>
+        <v>-27.94200130003896</v>
       </c>
       <c r="F92" t="n">
-        <v>1.219676218896108</v>
+        <v>1.715612650540692</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.347095578942644</v>
+        <v>-5.379276459327607</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.119005285860755</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.73186311383417</v>
+        <v>-29.83941638167895</v>
       </c>
       <c r="F93" t="n">
-        <v>1.272660768496574</v>
+        <v>1.755308512756805</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.742365294037196</v>
+        <v>-5.756072935112483</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.876363961798399</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.91431072064138</v>
+        <v>-32.01098428482469</v>
       </c>
       <c r="F94" t="n">
-        <v>1.222203033344561</v>
+        <v>1.708333330160692</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.556114193810801</v>
+        <v>-5.56915412744116</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.65988389964293</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.71823366768861</v>
+        <v>-33.83754382348526</v>
       </c>
       <c r="F95" t="n">
-        <v>1.067268721515575</v>
+        <v>1.54258477618444</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.842770164530394</v>
+        <v>-5.848727162323379</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.45204898517974</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.14980161296818</v>
+        <v>-36.28529385507721</v>
       </c>
       <c r="F96" t="n">
-        <v>1.196306458323627</v>
+        <v>1.633576280934436</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.21334779646545</v>
+        <v>-6.187176283084839</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.24074640919366</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.40987348332398</v>
+        <v>-38.54979092379352</v>
       </c>
       <c r="F97" t="n">
-        <v>1.251647622435603</v>
+        <v>1.673586358418751</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.653314633461654</v>
+        <v>-6.607609404241188</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-13.02026108717564</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.65204817569515</v>
+        <v>-40.79650864525076</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8484046949104406</v>
+        <v>1.254226806095424</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.718998716818594</v>
+        <v>-6.670400088670107</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.76264583468218</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.87195286093254</v>
+        <v>-43.03472946216372</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7678608478281418</v>
+        <v>1.17994107977147</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.111257202259549</v>
+        <v>-7.041579966535882</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-14.48521373714715</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.16648367236777</v>
+        <v>-45.32696912060165</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5631234159892295</v>
+        <v>0.9611163300748603</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.206124028650696</v>
+        <v>-7.120133783586239</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-15.12880394092515</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.16385848620434</v>
+        <v>-47.35026669406484</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3411172367020806</v>
+        <v>0.7098750385421371</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.275919095099937</v>
+        <v>-7.148426250027208</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-15.76725168016836</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.77548487246617</v>
+        <v>-49.95541239042002</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3833922825780141</v>
+        <v>0.7075969778476767</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.603632527531182</v>
+        <v>-7.442989971663204</v>
       </c>
     </row>
   </sheetData>
